--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H2">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I2">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J2">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N2">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O2">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P2">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q2">
-        <v>11.085156965508</v>
+        <v>3.975441887386666</v>
       </c>
       <c r="R2">
-        <v>99.76641268957202</v>
+        <v>35.77897698648</v>
       </c>
       <c r="S2">
-        <v>0.05986359434989854</v>
+        <v>0.05507235921032707</v>
       </c>
       <c r="T2">
-        <v>0.05986359434989853</v>
+        <v>0.05507235921032707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H3">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I3">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J3">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.313874</v>
       </c>
       <c r="O3">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P3">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q3">
-        <v>2.916882616104</v>
+        <v>4.12872203718</v>
       </c>
       <c r="R3">
-        <v>26.251943544936</v>
+        <v>37.15849833462</v>
       </c>
       <c r="S3">
-        <v>0.01575215202094512</v>
+        <v>0.05719577082301206</v>
       </c>
       <c r="T3">
-        <v>0.01575215202094511</v>
+        <v>0.05719577082301206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H4">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I4">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J4">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N4">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O4">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P4">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q4">
-        <v>4.191302929716</v>
+        <v>4.080354165073333</v>
       </c>
       <c r="R4">
-        <v>37.721726367444</v>
+        <v>36.72318748566</v>
       </c>
       <c r="S4">
-        <v>0.0226344524631241</v>
+        <v>0.05652572384399595</v>
       </c>
       <c r="T4">
-        <v>0.0226344524631241</v>
+        <v>0.05652572384399596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H5">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I5">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J5">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N5">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O5">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P5">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q5">
-        <v>9.585444692482668</v>
+        <v>3.6103386137</v>
       </c>
       <c r="R5">
-        <v>86.26900223234401</v>
+        <v>32.4930475233</v>
       </c>
       <c r="S5">
-        <v>0.05176464117915842</v>
+        <v>0.05001453187768902</v>
       </c>
       <c r="T5">
-        <v>0.05176464117915841</v>
+        <v>0.05001453187768902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N6">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O6">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P6">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q6">
-        <v>27.313207223421</v>
+        <v>6.920214702258665</v>
       </c>
       <c r="R6">
-        <v>245.818865010789</v>
+        <v>62.28193232032799</v>
       </c>
       <c r="S6">
-        <v>0.1475005507549584</v>
+        <v>0.09586671386257077</v>
       </c>
       <c r="T6">
-        <v>0.1475005507549584</v>
+        <v>0.09586671386257077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.313874</v>
       </c>
       <c r="O7">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P7">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q7">
         <v>7.187035744098</v>
@@ -883,10 +883,10 @@
         <v>64.68332169688199</v>
       </c>
       <c r="S7">
-        <v>0.03881242220580384</v>
+        <v>0.09956302352506949</v>
       </c>
       <c r="T7">
-        <v>0.03881242220580383</v>
+        <v>0.09956302352506949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N8">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O8">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P8">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q8">
-        <v>10.327136170617</v>
+        <v>7.102839805847332</v>
       </c>
       <c r="R8">
-        <v>92.94422553555299</v>
+        <v>63.92555825262599</v>
       </c>
       <c r="S8">
-        <v>0.05577002584966547</v>
+        <v>0.09839664527411247</v>
       </c>
       <c r="T8">
-        <v>0.05577002584966547</v>
+        <v>0.0983966452741125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N9">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O9">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P9">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q9">
-        <v>23.61800000027533</v>
+        <v>6.284664463069999</v>
       </c>
       <c r="R9">
-        <v>212.562000002478</v>
+        <v>56.56198016762999</v>
       </c>
       <c r="S9">
-        <v>0.127545182785564</v>
+        <v>0.08706234643366684</v>
       </c>
       <c r="T9">
-        <v>0.127545182785564</v>
+        <v>0.08706234643366684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H10">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N10">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O10">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P10">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q10">
-        <v>11.396829159777</v>
+        <v>3.041738206285333</v>
       </c>
       <c r="R10">
-        <v>102.571462437993</v>
+        <v>27.37564385656799</v>
       </c>
       <c r="S10">
-        <v>0.06154672954283417</v>
+        <v>0.04213762994544525</v>
       </c>
       <c r="T10">
-        <v>0.06154672954283417</v>
+        <v>0.04213762994544525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H11">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.313874</v>
       </c>
       <c r="O11">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P11">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q11">
-        <v>2.998894193226</v>
+        <v>3.159017769438</v>
       </c>
       <c r="R11">
-        <v>26.990047739034</v>
+        <v>28.431159924942</v>
       </c>
       <c r="S11">
-        <v>0.01619504225697001</v>
+        <v>0.04376232033532786</v>
       </c>
       <c r="T11">
-        <v>0.01619504225697</v>
+        <v>0.04376232033532786</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H12">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N12">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O12">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P12">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q12">
-        <v>4.309146329229</v>
+        <v>3.122009957800666</v>
       </c>
       <c r="R12">
-        <v>38.782316963061</v>
+        <v>28.098089620206</v>
       </c>
       <c r="S12">
-        <v>0.02327084665106476</v>
+        <v>0.04324964588206874</v>
       </c>
       <c r="T12">
-        <v>0.02327084665106476</v>
+        <v>0.04324964588206875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H13">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N13">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O13">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P13">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q13">
-        <v>9.854950716587332</v>
+        <v>2.76238597117</v>
       </c>
       <c r="R13">
-        <v>88.694556449286</v>
+        <v>24.86147374052999</v>
       </c>
       <c r="S13">
-        <v>0.05322006480121953</v>
+        <v>0.03826772388863889</v>
       </c>
       <c r="T13">
-        <v>0.05322006480121953</v>
+        <v>0.03826772388863889</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H14">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.664391</v>
+        <v>0.4216986666666666</v>
       </c>
       <c r="N14">
-        <v>4.993173000000001</v>
+        <v>1.265096</v>
       </c>
       <c r="O14">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="P14">
-        <v>0.3990511495040125</v>
+        <v>0.2516921781598699</v>
       </c>
       <c r="Q14">
-        <v>24.098542527945</v>
+        <v>4.231204518345778</v>
       </c>
       <c r="R14">
-        <v>216.8868827515051</v>
+        <v>38.080840665112</v>
       </c>
       <c r="S14">
-        <v>0.1301402748563215</v>
+        <v>0.05861547514152682</v>
       </c>
       <c r="T14">
-        <v>0.1301402748563215</v>
+        <v>0.05861547514152682</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H15">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.313874</v>
       </c>
       <c r="O15">
-        <v>0.1050039584054939</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="P15">
-        <v>0.1050039584054938</v>
+        <v>0.2613966125002536</v>
       </c>
       <c r="Q15">
-        <v>6.341147896410001</v>
+        <v>4.394346045942001</v>
       </c>
       <c r="R15">
-        <v>57.07033106769001</v>
+        <v>39.54911441347801</v>
       </c>
       <c r="S15">
-        <v>0.0342443419217749</v>
+        <v>0.06087549781684426</v>
       </c>
       <c r="T15">
-        <v>0.03424434192177489</v>
+        <v>0.06087549781684426</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H16">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6293069999999999</v>
+        <v>0.4328273333333333</v>
       </c>
       <c r="N16">
-        <v>1.887921</v>
+        <v>1.298482</v>
       </c>
       <c r="O16">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="P16">
-        <v>0.1508814225388875</v>
+        <v>0.2583343579312433</v>
       </c>
       <c r="Q16">
-        <v>9.111669975765</v>
+        <v>4.342866395428223</v>
       </c>
       <c r="R16">
-        <v>82.005029781885</v>
+        <v>39.085797558854</v>
       </c>
       <c r="S16">
-        <v>0.0492060975750332</v>
+        <v>0.06016234293106611</v>
       </c>
       <c r="T16">
-        <v>0.0492060975750332</v>
+        <v>0.06016234293106613</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H17">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.439215333333333</v>
+        <v>0.38297</v>
       </c>
       <c r="N17">
-        <v>4.317646</v>
+        <v>1.14891</v>
       </c>
       <c r="O17">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="P17">
-        <v>0.3450634695516061</v>
+        <v>0.2285768514086331</v>
       </c>
       <c r="Q17">
-        <v>20.83824769372334</v>
+        <v>3.842612088863333</v>
       </c>
       <c r="R17">
-        <v>187.54422924351</v>
+        <v>34.58350879977</v>
       </c>
       <c r="S17">
-        <v>0.1125335807856641</v>
+        <v>0.05323224920863837</v>
       </c>
       <c r="T17">
-        <v>0.1125335807856641</v>
+        <v>0.05323224920863837</v>
       </c>
     </row>
   </sheetData>
